--- a/Study 3/Shocks/GCAM/CP_EI - 2025.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2025.xlsx
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.0157462374268253</v>
+        <v>0.01574623742682531</v>
       </c>
     </row>
     <row r="17">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.07609597107509504</v>
+        <v>0.07609597107509505</v>
       </c>
     </row>
     <row r="25">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.04604774152963634</v>
+        <v>0.04604774152963635</v>
       </c>
     </row>
     <row r="29">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.006606521207017833</v>
+        <v>0.006606521207017834</v>
       </c>
     </row>
     <row r="33">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.0799545856290968</v>
+        <v>0.07995458562909681</v>
       </c>
     </row>
     <row r="37">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.0613776131559547</v>
+        <v>0.06137761315595471</v>
       </c>
     </row>
     <row r="41">
